--- a/POLISH2/bin/Release/system_value.xlsx
+++ b/POLISH2/bin/Release/system_value.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\课程\抛光\第八台_南京迈得特\POLISH2-Z\POLISH2\bin\Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\课程\抛光\软件改动版本\2021-913\POLISH2-Z\POLISH2\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>C轴电压转速比例因子</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,6 +144,10 @@
   </si>
   <si>
     <t>Z轴回零偏移改变量(mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -252,7 +256,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -287,7 +291,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -472,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -505,7 +509,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="1">
-        <v>46.15</v>
+        <v>46.125</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -521,7 +525,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="1">
-        <v>78.56</v>
+        <v>78.734999999999999</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -537,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>153.94370000000001</v>
+        <v>154.37459999999999</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -553,7 +557,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>56.845599999999997</v>
+        <v>-55.213200000000001</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -569,7 +573,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="1">
-        <v>1.2193000000000001</v>
+        <v>1.226</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -585,7 +589,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="1">
-        <v>1.8088</v>
+        <v>4.3643999999999998</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -665,7 +669,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="1">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -681,7 +685,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="1">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -697,7 +701,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="1">
-        <v>9.6784999999999997</v>
+        <v>9.06</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -713,7 +717,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="1">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -729,7 +733,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="1">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -797,7 +801,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="1">
-        <v>0.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -813,7 +817,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>16</v>
+        <v>16.5792</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -821,7 +825,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="1">
-        <v>82</v>
+        <v>82.917199999999994</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -845,7 +849,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="1">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -853,7 +857,15 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>95.483999999999995</v>
+        <v>96.06</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>220202</v>
       </c>
     </row>
   </sheetData>
